--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3134.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3134.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8672456093906602</v>
+        <v>1.4034583568573</v>
       </c>
       <c r="B1">
-        <v>1.130892972777041</v>
+        <v>1.504149675369263</v>
       </c>
       <c r="C1">
-        <v>1.749101908507207</v>
+        <v>1.687366724014282</v>
       </c>
       <c r="D1">
-        <v>4.500043654638927</v>
+        <v>2.627858877182007</v>
       </c>
       <c r="E1">
-        <v>3.873588971950202</v>
+        <v>4.607229232788086</v>
       </c>
     </row>
   </sheetData>
